--- a/proyectos/ejemplo1/7/3_elemento.xlsx
+++ b/proyectos/ejemplo1/7/3_elemento.xlsx
@@ -36,12 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>l</t>
   </si>
   <si>
-    <t>600</t>
+    <t>400</t>
   </si>
   <si>
     <t>id</t>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>lm</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
   <si>
     <t>kv</t>
@@ -107,19 +110,19 @@
     <t>ve</t>
   </si>
   <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+    <t>[0, 0, 0, 0, 0, 0, 7, 8, 9, 10, 11, 12]</t>
   </si>
   <si>
     <t>dx</t>
   </si>
   <si>
-    <t>30.0</t>
+    <t>20.0</t>
   </si>
   <si>
     <t>vzz</t>
   </si>
   <si>
-    <t>874.5046913580247</t>
+    <t>2951.4533333333334</t>
   </si>
   <si>
     <t>vyy</t>
@@ -128,7 +131,7 @@
     <t>myy</t>
   </si>
   <si>
-    <t>52470.281481481485</t>
+    <t>118058.13333333335</t>
   </si>
   <si>
     <t>mzz</t>
@@ -137,7 +140,7 @@
     <t>pp_scc</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>0.0768</t>
   </si>
 </sst>
 </file>
@@ -523,12 +526,12 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -536,7 +539,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -544,7 +547,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -552,7 +555,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -560,7 +563,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -568,106 +571,106 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0.7679999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -899,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.152000000000019</v>
+        <v>-4.702643708725907e-17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -931,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-114.9120000000015</v>
+        <v>-3.127258066302722e-15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -939,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.7679999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -947,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.151999999999997</v>
+        <v>-4.702643708725822e-17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -979,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114.912</v>
+        <v>3.127258066302681e-15</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7.149051953565419e-31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1019,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.152000000000019</v>
+        <v>-0.7679999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1051,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-114.9120000000015</v>
+        <v>-3.127258066302722e-15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1059,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-1.355854680848614e-31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1067,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.151999999999997</v>
+        <v>-0.7679999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1099,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114.912</v>
+        <v>3.127258066302681e-15</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006505269720228376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1139,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01102677336126192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1283,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01102677336126164</v>
+        <v>0.007351182240841091</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1291,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.006505269720228189</v>
+        <v>-0.0008167980267598654</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.152000000000044</v>
+        <v>0.3214321678321718</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1331,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.036800000000045</v>
+        <v>0.3214321678321723</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1339,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9216000000000455</v>
+        <v>0.3214321678321727</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1347,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8064000000000254</v>
+        <v>0.3214321678321703</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1355,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6912000000000023</v>
+        <v>0.3214321678321677</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1363,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5760000000000018</v>
+        <v>0.3214321678321718</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1371,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4607999999999954</v>
+        <v>0.3214321678321635</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1379,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3456000000000072</v>
+        <v>0.3214321678321673</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1387,7 +1390,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2304000000000007</v>
+        <v>0.3214321678321725</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1395,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1151999999999882</v>
+        <v>0.3214321678321673</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1403,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.427238108720988e-14</v>
+        <v>0.321432167832152</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1411,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1152000000000429</v>
+        <v>0.3214321678321366</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1419,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.230400000000025</v>
+        <v>0.3214321678321776</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1427,7 +1430,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.345599999999989</v>
+        <v>0.3214321678321827</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1435,7 +1438,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4607999999999954</v>
+        <v>0.3214321678321622</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1443,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.5760000000000141</v>
+        <v>0.3214321678321725</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1451,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.6911999999999962</v>
+        <v>0.3214321678321725</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1459,7 +1462,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.8064000000000027</v>
+        <v>0.3214321678321776</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1467,7 +1470,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.921599999999997</v>
+        <v>0.3214321678321776</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1475,7 +1478,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.036799999999993</v>
+        <v>0.3214321678321841</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1483,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.151999999999989</v>
+        <v>0.3214321678321905</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.154352484987814</v>
+        <v>-1.154352484987275</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1523,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.154352484988177</v>
+        <v>-1.154352484987248</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1531,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.154352484988539</v>
+        <v>-1.15435248498722</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1539,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.154352484993199</v>
+        <v>-1.154352484986625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1547,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.154352484995918</v>
+        <v>-1.154352484986218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1555,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.15435248499786</v>
+        <v>-1.154352484986084</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1563,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.15435248499786</v>
+        <v>-1.154352484986289</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1571,7 +1574,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.15435248499553</v>
+        <v>-1.154352484987109</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1579,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.154352484994364</v>
+        <v>-1.154352484987641</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1587,7 +1590,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.154352484994753</v>
+        <v>-1.154352484987559</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1595,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.154352484996695</v>
+        <v>-1.154352484986658</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1603,7 +1606,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.154352484998636</v>
+        <v>-1.154352484986986</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1611,7 +1614,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.154352484996306</v>
+        <v>-1.154352484987641</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1619,7 +1622,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.154352484996695</v>
+        <v>-1.154352484986822</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1627,7 +1630,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.154352484997083</v>
+        <v>-1.154352484986658</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1635,7 +1638,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.154352484995918</v>
+        <v>-1.154352484986986</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1643,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.154352484996306</v>
+        <v>-1.154352484987641</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1651,7 +1654,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.154352484995918</v>
+        <v>-1.154352484987969</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1659,7 +1662,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.154352484995724</v>
+        <v>-1.154352484987641</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1667,7 +1670,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.154352484994822</v>
+        <v>-1.154352484990782</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1675,7 +1678,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.15435248499392</v>
+        <v>-1.154352484993924</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-346.3057454984628</v>
+        <v>858.5849940147031</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1715,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-311.675170948793</v>
+        <v>835.497944314958</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1723,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-277.0445963991601</v>
+        <v>812.4108946152121</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1731,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-242.414021849434</v>
+        <v>789.3238449154693</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1739,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-207.7834472995914</v>
+        <v>766.2367952157472</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1747,7 +1750,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-173.1528727496789</v>
+        <v>743.1497455160205</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1755,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-138.5222981997199</v>
+        <v>720.0626958163037</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1763,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-103.8917236498074</v>
+        <v>696.975646116569</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1771,7 +1774,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-69.26114909998809</v>
+        <v>673.8885964168194</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1779,7 +1782,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-34.6305745501455</v>
+        <v>650.8015467170633</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1787,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.029193159683793e-10</v>
+        <v>627.7144970173171</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1795,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34.63057454965617</v>
+        <v>604.627447317597</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1803,7 +1806,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>69.26114909961527</v>
+        <v>581.5403976178376</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1811,7 +1814,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>103.8917236494346</v>
+        <v>558.4533479180914</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1819,7 +1822,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138.522298199417</v>
+        <v>535.3662982183647</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1827,7 +1830,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>173.1528727492595</v>
+        <v>512.2792485186251</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1835,7 +1838,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>207.783447299172</v>
+        <v>489.1921988188853</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1843,7 +1846,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>242.4140218490496</v>
+        <v>466.1051491191194</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1851,7 +1854,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>277.0445963989271</v>
+        <v>443.0180994193666</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1859,7 +1862,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>311.675170948793</v>
+        <v>419.9310497196137</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1867,7 +1870,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>346.305745498626</v>
+        <v>396.8440000197342</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-85.98310489510732</v>
+        <v>-42.58976223776244</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1907,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-53.15110489510602</v>
+        <v>-36.16111888111897</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1915,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-23.77510489510447</v>
+        <v>-29.73247552447553</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1923,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.14489510489671</v>
+        <v>-23.30383216783206</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1931,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.60889510489706</v>
+        <v>-16.87518881118872</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1939,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43.61689510489685</v>
+        <v>-10.44654545454535</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1947,7 +1950,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59.16889510489717</v>
+        <v>-4.017902097901849</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1955,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>71.26489510489657</v>
+        <v>2.410741258741191</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1963,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79.90489510489761</v>
+        <v>8.839384615384846</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1971,7 +1974,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>85.08889510489662</v>
+        <v>15.26802797202809</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1979,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>86.8168951048969</v>
+        <v>21.69667132867154</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1987,7 +1990,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>85.08889510489516</v>
+        <v>28.12531468531417</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1995,7 +1998,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>79.90489510489432</v>
+        <v>34.55395804195701</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2003,7 +2006,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>71.26489510489365</v>
+        <v>40.98260139860128</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2011,7 +2014,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>59.16889510489499</v>
+        <v>47.41124475524432</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2019,7 +2022,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>43.61689510489393</v>
+        <v>53.83988811188777</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2027,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.60889510489415</v>
+        <v>60.26853146853122</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2035,7 +2038,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.144895104894161</v>
+        <v>66.69717482517467</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2043,7 +2046,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-23.77510489510601</v>
+        <v>73.12581818181822</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2051,7 +2054,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-53.15110489510565</v>
+        <v>79.55446153846177</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2059,7 +2062,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-85.9831048951055</v>
+        <v>85.98310489510551</v>
       </c>
     </row>
   </sheetData>
@@ -3987,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.002168423240076125</v>
+        <v>8.262407240238194e-20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3995,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.008501160441300856</v>
+        <v>-0.0001803762309095283</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4003,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.01584687305249866</v>
+        <v>-0.000667051721854104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4011,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.02364570129837235</v>
+        <v>-0.001405573271049718</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4019,7 +4022,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.03140365125954209</v>
+        <v>-0.002341487676712362</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4027,7 +4030,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.03869259487254535</v>
+        <v>-0.003420341737058026</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4035,7 +4038,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.04515026992983692</v>
+        <v>-0.004587682250302703</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4043,7 +4046,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0504802800797889</v>
+        <v>-0.005789056014662383</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4051,7 +4054,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.05445209482669071</v>
+        <v>-0.006970009828353061</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4059,7 +4062,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.05690104953074905</v>
+        <v>-0.008076090489590725</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4067,7 +4070,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.05772834540808798</v>
+        <v>-0.009052844796591368</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4075,7 +4078,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.05690104953074884</v>
+        <v>-0.009845819547570982</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4083,7 +4086,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.05445209482669031</v>
+        <v>-0.01040056154074556</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4091,7 +4094,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05048028007978837</v>
+        <v>-0.01066261757433111</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4099,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.04515026992983633</v>
+        <v>-0.0105775344465436</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4107,7 +4110,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.03869259487254473</v>
+        <v>-0.01009085895559904</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4115,7 +4118,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0314036512595415</v>
+        <v>-0.00914813789971341</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4123,7 +4126,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.02364570129837184</v>
+        <v>-0.007694918077102706</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4131,7 +4134,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.01584687305249827</v>
+        <v>-0.005676746285982916</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4139,7 +4142,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.008501160441300637</v>
+        <v>-0.003039169324570033</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4147,7 +4150,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.002168423240076063</v>
+        <v>0.0002722660089199551</v>
       </c>
     </row>
   </sheetData>
@@ -4179,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.240188821917775</v>
+        <v>1.232618783484639e-18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4187,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.106710579531867</v>
+        <v>0.00363628057539465</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4195,7 +4198,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.9672923047667</v>
+        <v>0.01434956568004063</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4203,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.822594001219966</v>
+        <v>0.03194429869239998</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4211,7 +4214,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.673275672489357</v>
+        <v>0.05622492299093475</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4219,7 +4222,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.519997322172569</v>
+        <v>0.08699588195410717</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4227,7 +4230,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.363418953867297</v>
+        <v>0.1240616189603794</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4235,7 +4238,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.204200571171239</v>
+        <v>0.1672265773882138</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4243,7 +4246,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.043002177682091</v>
+        <v>0.2162952006160724</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4251,7 +4254,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.880483776997548</v>
+        <v>0.2710719320224173</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4259,7 +4262,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.717305372715303</v>
+        <v>0.3313612149857104</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4267,7 +4270,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.554126968433053</v>
+        <v>0.3969674928844136</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4275,7 +4278,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.391608567748494</v>
+        <v>0.4676952090969894</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4283,7 +4286,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.230410174259324</v>
+        <v>0.5433488070018995</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4291,7 +4294,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.071191791563237</v>
+        <v>0.623732729977606</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4299,7 +4302,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.91461342325793</v>
+        <v>0.7086514214025711</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4307,7 +4310,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.761335072941099</v>
+        <v>0.7979093246552569</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4315,7 +4318,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.612016744210439</v>
+        <v>0.8913108831141254</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4323,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.467318440663647</v>
+        <v>0.9886605401576386</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4331,7 +4334,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.327900165898418</v>
+        <v>1.089762739164258</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4371,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.321432167832195</v>
+        <v>-2.687999999999989</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4379,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.321432167832195</v>
+        <v>-2.611199999999989</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4387,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.321432167832195</v>
+        <v>-2.534399999999989</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4395,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.321432167832195</v>
+        <v>-2.457599999999989</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4403,7 +4406,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.321432167832195</v>
+        <v>-2.380799999999989</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4411,7 +4414,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.321432167832195</v>
+        <v>-2.303999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4419,7 +4422,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.321432167832195</v>
+        <v>-2.227199999999989</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4427,7 +4430,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.321432167832195</v>
+        <v>-2.150399999999989</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4435,7 +4438,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.321432167832195</v>
+        <v>-2.073599999999989</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4443,7 +4446,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.996799999999989</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4451,7 +4454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.919999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4459,7 +4462,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.843199999999989</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4467,7 +4470,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.766399999999989</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4475,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.689599999999989</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4483,7 +4486,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.612799999999989</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4491,7 +4494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.535999999999989</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4499,7 +4502,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.459199999999989</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4507,7 +4510,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.382399999999989</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4515,7 +4518,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.305599999999989</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4523,7 +4526,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.228799999999989</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4531,7 +4534,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.321432167832195</v>
+        <v>-1.151999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -6108,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>6.123233995736766e-17</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6149,10 +6152,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6.123233995736766e-17</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6240,10 +6243,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6.123233995736766e-17</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6281,10 +6284,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>6.123233995736766e-17</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6372,10 +6375,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>6.123233995736766e-17</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -6413,10 +6416,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>6.123233995736766e-17</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6504,10 +6507,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>6.123233995736766e-17</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -6545,10 +6548,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>6.123233995736766e-17</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6657,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>590.2906666666667</v>
+        <v>885.436</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6675,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-590.2906666666667</v>
+        <v>-885.436</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -6701,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.610461765245823</v>
+        <v>8.810308457704652</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6713,13 +6716,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>783.1385295742277</v>
+        <v>1762.061691542047</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.61046176524791</v>
+        <v>-8.810308457711697</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -6731,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>783.1385295743613</v>
+        <v>1762.061691542313</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6745,13 +6748,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2.610461765245823</v>
+        <v>8.810308457704652</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-783.1385295742277</v>
+        <v>-1762.061691542047</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6763,13 +6766,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.61046176524791</v>
+        <v>-8.810308457711697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-783.1385295743613</v>
+        <v>-1762.061691542313</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -6789,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>53204.86542222223</v>
+        <v>79807.29813333334</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6807,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-53204.86542222223</v>
+        <v>-79807.29813333334</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -6827,13 +6830,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-783.1385295742247</v>
+        <v>-1762.061691542006</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>313646.9810945168</v>
+        <v>470470.4716417747</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6845,13 +6848,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>783.138529574343</v>
+        <v>1762.061691542272</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>156236.1366500837</v>
+        <v>234354.2049751256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -6865,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>783.1385295742247</v>
+        <v>1762.061691542006</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -6877,13 +6880,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>313646.9810945168</v>
+        <v>470470.4716417747</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-783.138529574343</v>
+        <v>-1762.061691542272</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -6895,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>156236.1366500837</v>
+        <v>234354.2049751256</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6903,7 +6906,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-590.2906666666667</v>
+        <v>-885.436</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -6921,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>590.2906666666667</v>
+        <v>885.436</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6947,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.610461765247932</v>
+        <v>-8.81030845771177</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -6959,13 +6962,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-783.138529574352</v>
+        <v>-1762.061691542294</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.610461765249707</v>
+        <v>8.81030845771776</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6977,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-783.1385295743955</v>
+        <v>-1762.061691542425</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6991,13 +6994,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.610461765247932</v>
+        <v>-8.81030845771177</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>783.138529574352</v>
+        <v>1762.061691542294</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7009,13 +7012,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.610461765249707</v>
+        <v>8.81030845771776</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>783.1385295743955</v>
+        <v>1762.061691542425</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -7035,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-53204.86542222223</v>
+        <v>-79807.29813333334</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -7053,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>53204.86542222223</v>
+        <v>79807.29813333334</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -7073,13 +7076,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-783.1385295743743</v>
+        <v>-1762.061691542342</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>156236.1366500845</v>
+        <v>234354.2049751268</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -7091,13 +7094,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>783.1385295744169</v>
+        <v>1762.061691542438</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>313646.9810945301</v>
+        <v>470470.4716417957</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7111,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>783.1385295743743</v>
+        <v>1762.061691542342</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7123,13 +7126,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>156236.1366500845</v>
+        <v>234354.2049751268</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-783.1385295744169</v>
+        <v>-1762.061691542438</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -7141,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>313646.9810945301</v>
+        <v>470470.4716417957</v>
       </c>
     </row>
   </sheetData>
@@ -7206,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>590.2906666666667</v>
+        <v>8.810308457704652</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5.367784235988035e-14</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7221,13 +7224,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-1762.061691542047</v>
       </c>
       <c r="H2" t="n">
-        <v>-590.2906666666667</v>
+        <v>-8.810308457711697</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-5.367784235987992e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7239,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-1762.061691542313</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7247,10 +7250,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5.367784235988035e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>2.610461765245823</v>
+        <v>885.436</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7262,13 +7265,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>783.1385295742277</v>
+        <v>1.07895160522357e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-5.367784235987992e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.61046176524791</v>
+        <v>-885.436</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -7280,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>783.1385295743613</v>
+        <v>1.078951605223732e-13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7294,13 +7297,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2.610461765245823</v>
+        <v>8.810308457704652</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1762.061691542047</v>
       </c>
       <c r="F4" t="n">
-        <v>-783.1385295742277</v>
+        <v>-1.07895160522357e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -7312,13 +7315,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.61046176524791</v>
+        <v>-8.810308457711697</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1762.061691542313</v>
       </c>
       <c r="L4" t="n">
-        <v>-783.1385295743613</v>
+        <v>-1.078951605223732e-13</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -7335,13 +7338,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1762.061691542006</v>
       </c>
       <c r="E5" t="n">
-        <v>53204.86542222223</v>
+        <v>470470.4716417747</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-2.392122024909299e-11</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7353,13 +7356,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-1762.061691542272</v>
       </c>
       <c r="K5" t="n">
-        <v>-53204.86542222223</v>
+        <v>234354.2049751256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-1.923684395985478e-11</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -7376,13 +7379,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-783.1385295742247</v>
+        <v>-1.078951605223544e-13</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-2.392122024909299e-11</v>
       </c>
       <c r="F6" t="n">
-        <v>313646.9810945168</v>
+        <v>79807.29813333334</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7394,13 +7397,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>783.138529574343</v>
+        <v>1.078951605223707e-13</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-1.923684395985478e-11</v>
       </c>
       <c r="L6" t="n">
-        <v>156236.1366500837</v>
+        <v>-79807.29813333334</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -7411,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-1762.061691542006</v>
       </c>
       <c r="C7" t="n">
-        <v>783.1385295742247</v>
+        <v>1.078951605223544e-13</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7426,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>313646.9810945168</v>
+        <v>470470.4716417747</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1762.061691542272</v>
       </c>
       <c r="I7" t="n">
-        <v>-783.138529574343</v>
+        <v>-1.078951605223707e-13</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -7444,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>156236.1366500837</v>
+        <v>234354.2049751256</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7452,10 +7455,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-590.2906666666667</v>
+        <v>-8.81030845771177</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-5.367784235987992e-14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7467,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1762.061691542294</v>
       </c>
       <c r="H8" t="n">
-        <v>590.2906666666667</v>
+        <v>8.81030845771776</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.367784235987955e-14</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -7485,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1762.061691542425</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7493,10 +7496,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-5.367784235987992e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.610461765247932</v>
+        <v>-885.436</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7508,13 +7511,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-783.138529574352</v>
+        <v>-1.07895160522372e-13</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5.367784235987955e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.610461765249707</v>
+        <v>885.436</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -7526,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-783.1385295743955</v>
+        <v>-1.078951605223801e-13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7540,13 +7543,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.610461765247932</v>
+        <v>-8.81030845771177</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-1762.061691542294</v>
       </c>
       <c r="F10" t="n">
-        <v>783.138529574352</v>
+        <v>1.07895160522372e-13</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7558,13 +7561,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.610461765249707</v>
+        <v>8.81030845771776</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-1762.061691542425</v>
       </c>
       <c r="L10" t="n">
-        <v>783.1385295743955</v>
+        <v>1.078951605223801e-13</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -7581,13 +7584,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1762.061691542342</v>
       </c>
       <c r="E11" t="n">
-        <v>-53204.86542222223</v>
+        <v>234354.2049751268</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.923684395985485e-11</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -7599,13 +7602,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1762.061691542438</v>
       </c>
       <c r="K11" t="n">
-        <v>53204.86542222223</v>
+        <v>470470.4716417957</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-2.392122024909427e-11</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -7622,13 +7625,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-783.1385295743743</v>
+        <v>-1.07895160522375e-13</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-1.923684395985485e-11</v>
       </c>
       <c r="F12" t="n">
-        <v>156236.1366500845</v>
+        <v>-79807.29813333334</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -7640,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>783.1385295744169</v>
+        <v>1.078951605223809e-13</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-2.392122024909427e-11</v>
       </c>
       <c r="L12" t="n">
-        <v>313646.9810945301</v>
+        <v>79807.29813333334</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7657,10 +7660,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1762.061691542342</v>
       </c>
       <c r="C13" t="n">
-        <v>783.1385295743743</v>
+        <v>1.07895160522375e-13</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7672,13 +7675,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>156236.1366500845</v>
+        <v>234354.2049751268</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1762.061691542438</v>
       </c>
       <c r="I13" t="n">
-        <v>-783.1385295744169</v>
+        <v>-1.078951605223809e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -7690,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>313646.9810945301</v>
+        <v>470470.4716417957</v>
       </c>
     </row>
   </sheetData>
@@ -7914,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.202576464676308e-19</v>
+        <v>1.454549548835339e-36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7922,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.001095019854625306</v>
+        <v>-1.324456849352771e-20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7930,7 +7933,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.003754353787286761</v>
+        <v>-4.540994912066642e-20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7938,7 +7941,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.007418142022687212</v>
+        <v>-8.972448280201843e-20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7946,7 +7949,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.01159239064144682</v>
+        <v>-1.402131762322329e-19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7954,7 +7957,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.01584897158010306</v>
+        <v>-1.916977018800057e-19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7962,7 +7965,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.01982562263111072</v>
+        <v>-2.397963979880797e-19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7970,7 +7973,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.02322594744284191</v>
+        <v>-2.809242685732444e-19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7978,7 +7981,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.02581941551958602</v>
+        <v>-3.122929834263359e-19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7986,7 +7989,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02744136222154979</v>
+        <v>-3.319108781122376e-19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7994,7 +7997,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.02799298876485725</v>
+        <v>-3.38582953969879e-19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8002,7 +8005,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.02744136222154974</v>
+        <v>-3.31910878112237e-19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8010,7 +8013,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.02581941551958593</v>
+        <v>-3.122929834263348e-19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8018,7 +8021,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.02322594744284179</v>
+        <v>-2.809242685732429e-19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8026,7 +8029,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0198256226311106</v>
+        <v>-2.397963979880782e-19</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8034,7 +8037,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.01584897158010294</v>
+        <v>-1.916977018800043e-19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8042,7 +8045,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.01159239064144672</v>
+        <v>-1.402131762322316e-19</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8050,7 +8053,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.007418142022687136</v>
+        <v>-8.972448280201751e-20</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8058,7 +8061,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.003754353787286717</v>
+        <v>-4.540994912066589e-20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8066,7 +8069,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.001095019854625292</v>
+        <v>-1.324456849352754e-20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8106,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-114.9120000000015</v>
+        <v>-3.127258066302722e-15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8114,7 +8117,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-82.08000000000092</v>
+        <v>-2.233755761644798e-15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8122,7 +8125,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-52.70400000000038</v>
+        <v>-1.434306331161388e-15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8130,7 +8133,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-26.78399999999979</v>
+        <v>-7.289097748525011e-16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8138,7 +8141,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.319999999999786</v>
+        <v>-1.175660927181372e-16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8146,7 +8149,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.68800000000046</v>
+        <v>3.997247152417024e-16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8154,7 +8157,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.24000000000033</v>
+        <v>8.229626490270325e-16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8162,7 +8165,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.33600000000064</v>
+        <v>1.152147708637855e-15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8170,7 +8173,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50.97600000000057</v>
+        <v>1.387279894074126e-15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8178,7 +8181,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>56.1600000000005</v>
+        <v>1.528359205335921e-15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8186,7 +8189,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>57.88800000000078</v>
+        <v>1.575385642423171e-15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8194,7 +8197,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>56.16000000000032</v>
+        <v>1.528359205335904e-15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8202,7 +8205,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>50.97599999999949</v>
+        <v>1.387279894074109e-15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8210,7 +8213,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>42.33599999999954</v>
+        <v>1.152147708637821e-15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8218,7 +8221,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30.23999999999996</v>
+        <v>8.229626490270155e-16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8226,7 +8229,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14.68799999999982</v>
+        <v>3.997247152416939e-16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8234,7 +8237,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.320000000000332</v>
+        <v>-1.175660927181556e-16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8242,7 +8245,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-26.78400000000013</v>
+        <v>-7.289097748525103e-16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8250,7 +8253,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-52.70400000000022</v>
+        <v>-1.434306331161386e-15</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8258,7 +8261,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-82.08000000000011</v>
+        <v>-2.233755761644776e-15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8266,7 +8269,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-114.912</v>
+        <v>-3.127258066302681e-15</v>
       </c>
     </row>
   </sheetData>
